--- a/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #3 - 03 SMaSH Godiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E2B2B-C9E1-4FD6-B38A-F9CC798D6999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1F186-44FD-48E0-976F-7B005A687F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Bottling day</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Cooled and served @ 7 C. Opening the swing-top gave a puff. Poured clear with a little yeast from conditioning. No foam, light carbonation. A light sour taste, boozy, some light esters and dry mouthfeel.</t>
+    <t>Cooled and served @ 11 C. Opening the swing-top gave a puff. Poured clear with a little yeast from conditioning. No foam, light carbonation. A light sour taste, boozy, some light esters and dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 11 C. Opening the swing-top gave a puff. Poured clear with a little yeast from conditioning. No foam, light carbonation. A light sour taste, boozy and dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,21 +523,41 @@
         <v>27</v>
       </c>
       <c r="C8" s="3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B9" s="3">
+        <f>A9-$A$6</f>
+        <v>37</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B10" s="3">
+        <f>A10-$A$6</f>
+        <v>48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -550,6 +573,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #3 - 03 SMaSH Godiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1F186-44FD-48E0-976F-7B005A687F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD140FA-EE6F-469D-AFD7-214A3F5E9545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Bottling day</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Cooled and served @ 11 C. Opening the swing-top gave a puff. Poured clear with a little yeast from conditioning. No foam, light carbonation. A light sour taste, boozy and dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Light carbonation. A light sour grassy taste, boozy and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Light carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,11 +115,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -130,22 +151,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -430,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,18 +477,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -464,115 +497,145 @@
       <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>44080</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>44090</v>
       </c>
-      <c r="B7" s="3">
-        <f>A7-$A$6</f>
+      <c r="B7" s="9">
+        <f t="shared" ref="B7:B13" si="0">A7-$A$6</f>
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44107</v>
-      </c>
-      <c r="B8" s="3">
-        <f>A8-$A$6</f>
-        <v>27</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="8">
+        <v>44106</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
         <v>2.75</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>44117</v>
       </c>
-      <c r="B9" s="3">
-        <f>A9-$A$6</f>
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>2.75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>44128</v>
       </c>
-      <c r="B10" s="3">
-        <f>A10-$A$6</f>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>2.75</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44135</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44143</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>44150</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>

--- a/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #3 - 03 SMaSH Godiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD140FA-EE6F-469D-AFD7-214A3F5E9545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D020E-BE5D-4FD5-9863-FF316A95106F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Bottling day</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Light carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a pop. Poured clear with a foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,19 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -463,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,170 +473,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>44080</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>44090</v>
       </c>
-      <c r="B7" s="9">
-        <f t="shared" ref="B7:B13" si="0">A7-$A$6</f>
+      <c r="B7" s="7">
+        <f t="shared" ref="B7:B14" si="0">A7-$A$6</f>
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>44106</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>2.75</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>44117</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>2.75</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>44128</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>2.75</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>44135</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>2.75</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>44143</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>2.75</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>44150</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>2.75</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44169</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #3 - 03 SMaSH Godiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D020E-BE5D-4FD5-9863-FF316A95106F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216B237-1D60-4657-8610-8E4236579A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Bottling day</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Cooled and served @ 12 C. Opening the swing-top gave a pop. Poured clear with a foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +538,7 @@
         <v>44090</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:B14" si="0">A7-$A$6</f>
+        <f t="shared" ref="B7:B15" si="0">A7-$A$6</f>
         <v>10</v>
       </c>
       <c r="C7" s="7"/>
@@ -646,6 +649,21 @@
       </c>
       <c r="D14" s="9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_3/Batch_3_03_SMaSH_Godiva_tasting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #3 - 03 SMaSH Godiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216B237-1D60-4657-8610-8E4236579A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA7170-3719-41BB-8D5A-5D9FF3BE1753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Bottling day</t>
   </si>
@@ -74,10 +74,13 @@
     <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Light carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
   </si>
   <si>
-    <t>Cooled and served @ 12 C. Opening the swing-top gave a pop. Poured clear with a foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
-  </si>
-  <si>
-    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a pop. Poured clear with foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
+  </si>
+  <si>
+    <t>Cooled and served @ 12 C. Opening the swing-top gave a small puff. Poured clear with a little foam. Moderate carbonation. A light sour grassy taste, less boozy and a dry mouthfeel.</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
         <v>44090</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" ref="B7:B15" si="0">A7-$A$6</f>
+        <f t="shared" ref="B7:B16" si="0">A7-$A$6</f>
         <v>10</v>
       </c>
       <c r="C7" s="7"/>
@@ -648,7 +651,7 @@
         <v>2.75</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -663,7 +666,22 @@
         <v>2.75</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44204</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
